--- a/HP45 Printhed PCB/PCB-BOM.xlsx
+++ b/HP45 Printhed PCB/PCB-BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Quantity</t>
   </si>
@@ -140,12 +140,6 @@
     <t>CR0805-FX-1000ELFCT-ND</t>
   </si>
   <si>
-    <t>CR0805-FX-5101ELFCT-ND</t>
-  </si>
-  <si>
-    <t>CR0805-JW-102ELFCT-ND</t>
-  </si>
-  <si>
     <t>CD4504BPWE4-ND</t>
   </si>
   <si>
@@ -153,6 +147,18 @@
   </si>
   <si>
     <t>ED90344-ND</t>
+  </si>
+  <si>
+    <t>10Ω</t>
+  </si>
+  <si>
+    <t>CR0603-JW-100ELFCT-ND</t>
+  </si>
+  <si>
+    <t>CR0603-FX-5101ELFCT-ND</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1001ELFCT-ND</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -251,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +659,7 @@
         <v>903</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,7 +757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -756,10 +771,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -772,8 +787,8 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,7 +816,24 @@
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +842,11 @@
     <hyperlink ref="E3" r:id="rId2" display="https://www.digikey.ca/product-detail/en/kemet/C0603C334K4RACTU/399-4916-6-ND/1305499"/>
     <hyperlink ref="E10" r:id="rId3" display="https://www.digikey.ca/product-detail/en/bourns-inc/CR0805-FX-1002ELF/CR0805-FX-1002ELFTR-ND/3593209"/>
     <hyperlink ref="E9" r:id="rId4" display="https://www.digikey.ca/product-detail/en/bourns-inc/CR0805-FX-1000ELF/CR0805-FX-1000ELFCT-ND/3740922"/>
-    <hyperlink ref="E11" r:id="rId5" display="https://www.digikey.ca/product-detail/en/bourns-inc/CR0805-FX-5101ELF/CR0805-FX-5101ELFCT-ND/4247942"/>
-    <hyperlink ref="E12" r:id="rId6" display="https://www.digikey.ca/product-detail/en/bourns-inc/CR0805-JW-102ELF/CR0805-JW-102ELFCT-ND/3592930"/>
+    <hyperlink ref="E15" r:id="rId5" display="https://www.digikey.ca/product-detail/en/bourns-inc/CR0603-JW-100ELF/CR0603-JW-100ELFCT-ND/3925328"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://www.digikey.ca/product-detail/en/bourns-inc/CR0603-FX-5101ELF/CR0603-FX-5101ELFCT-ND/3925320"/>
+    <hyperlink ref="E12" r:id="rId7" display="https://www.digikey.ca/product-detail/en/bourns-inc/CR0603-FX-1001ELF/CR0603-FX-1001ELFCT-ND/3592910"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>